--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
@@ -4813,7 +4816,7 @@
         <v>227</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4863,7 +4866,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4889,10 +4892,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4943,7 +4946,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4961,7 +4964,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4975,7 +4978,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5001,10 +5004,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>163</v>
@@ -5048,7 +5051,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5060,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5075,7 +5078,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5089,7 +5092,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5112,19 +5115,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5173,7 +5176,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5191,13 +5194,13 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5205,7 +5208,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5231,10 +5234,10 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5285,7 +5288,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5303,7 +5306,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5317,7 +5320,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5343,10 +5346,10 @@
         <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>163</v>
@@ -5390,7 +5393,7 @@
         <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
@@ -5399,7 +5402,7 @@
         <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5417,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5431,7 +5434,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5457,16 +5460,16 @@
         <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5515,7 +5518,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5533,13 +5536,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5547,7 +5550,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5573,13 +5576,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5629,7 +5632,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5647,13 +5650,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5661,7 +5664,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5687,14 +5690,14 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5743,7 +5746,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5761,13 +5764,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5801,14 +5804,14 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5857,7 +5860,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5875,13 +5878,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5889,7 +5892,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5912,19 +5915,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5973,7 +5976,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5991,13 +5994,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -6005,7 +6008,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6031,16 +6034,16 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6089,7 +6092,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6107,13 +6110,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6124,7 +6127,7 @@
         <v>213</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -6146,7 +6149,7 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>215</v>
@@ -6237,7 +6240,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6260,16 +6263,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6319,7 +6322,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>86</v>
@@ -6334,16 +6337,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6351,7 +6354,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6377,10 +6380,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6431,7 +6434,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6449,7 +6452,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6463,7 +6466,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6489,10 +6492,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>163</v>
@@ -6536,7 +6539,7 @@
         <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
@@ -6545,7 +6548,7 @@
         <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6563,7 +6566,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6603,13 +6606,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6659,7 +6662,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6668,7 +6671,7 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6691,7 +6694,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6717,13 +6720,13 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6749,13 +6752,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6773,7 +6776,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6805,7 +6808,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6831,13 +6834,13 @@
         <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6887,7 +6890,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6905,7 +6908,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6919,7 +6922,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6945,13 +6948,13 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7001,7 +7004,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7033,7 +7036,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7056,16 +7059,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7115,7 +7118,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7130,16 +7133,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7170,16 +7173,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7229,7 +7232,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7247,10 +7250,10 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7261,7 +7264,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7284,16 +7287,16 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7343,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>86</v>
@@ -7358,16 +7361,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7375,7 +7378,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7398,13 +7401,13 @@
         <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7455,7 +7458,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7470,16 +7473,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7487,7 +7490,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7513,10 +7516,10 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7567,7 +7570,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7585,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7599,7 +7602,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7625,10 +7628,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>163</v>
@@ -7681,7 +7684,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7699,7 +7702,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7713,11 +7716,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7739,10 +7742,10 @@
         <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>163</v>
@@ -7797,7 +7800,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7829,7 +7832,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7855,10 +7858,10 @@
         <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7888,10 +7891,10 @@
         <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7909,7 +7912,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7924,10 +7927,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7941,7 +7944,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7964,13 +7967,13 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8021,7 +8024,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>86</v>
@@ -8036,10 +8039,10 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8053,7 +8056,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8079,10 +8082,10 @@
         <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8112,10 +8115,10 @@
         <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8133,7 +8136,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8148,16 +8151,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8165,7 +8168,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8188,16 +8191,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8247,7 +8250,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8262,24 +8265,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8302,19 +8305,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8363,7 +8366,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8378,16 +8381,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8395,7 +8398,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8418,16 +8421,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8477,7 +8480,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8495,13 +8498,13 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8509,7 +8512,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8532,16 +8535,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8591,7 +8594,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8606,10 +8609,10 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8623,7 +8626,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8646,13 +8649,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8703,7 +8706,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8715,13 +8718,13 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8735,7 +8738,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8761,10 +8764,10 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8815,7 +8818,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8833,7 +8836,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8847,7 +8850,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8925,7 +8928,7 @@
         <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8957,10 +8960,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -8982,13 +8985,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9039,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9071,10 +9074,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9096,13 +9099,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9153,7 +9156,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9185,10 +9188,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9210,13 +9213,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9267,7 +9270,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9299,11 +9302,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9325,10 +9328,10 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>163</v>
@@ -9383,7 +9386,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9415,7 +9418,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9441,10 +9444,10 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9495,7 +9498,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9513,7 +9516,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9553,13 +9556,13 @@
         <v>197</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9588,10 +9591,10 @@
         <v>201</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9609,7 +9612,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9627,13 +9630,13 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9641,7 +9644,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9667,10 +9670,10 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9721,7 +9724,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9739,7 +9742,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9753,7 +9756,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9779,10 +9782,10 @@
         <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>163</v>
@@ -9826,7 +9829,7 @@
         <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
@@ -9835,7 +9838,7 @@
         <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9853,7 +9856,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9867,10 +9870,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -9892,13 +9895,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9949,7 +9952,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9981,7 +9984,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10004,19 +10007,19 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10065,7 +10068,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10083,13 +10086,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10097,7 +10100,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10123,16 +10126,16 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10181,7 +10184,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10199,13 +10202,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10213,7 +10216,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10239,10 +10242,10 @@
         <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>200</v>
@@ -10274,10 +10277,10 @@
         <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10295,7 +10298,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10313,13 +10316,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10327,7 +10330,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10353,10 +10356,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10407,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10425,7 +10428,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10439,7 +10442,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10465,10 +10468,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>163</v>
@@ -10512,7 +10515,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -10521,7 +10524,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10539,7 +10542,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10553,10 +10556,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>77</v>
@@ -10578,13 +10581,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10635,7 +10638,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10667,7 +10670,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10690,19 +10693,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10751,7 +10754,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10769,13 +10772,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10783,7 +10786,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10809,16 +10812,16 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10867,7 +10870,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10885,13 +10888,13 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10899,7 +10902,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10925,13 +10928,13 @@
         <v>197</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10960,10 +10963,10 @@
         <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10981,7 +10984,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10999,13 +11002,13 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -11013,7 +11016,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11039,10 +11042,10 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11093,7 +11096,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11111,7 +11114,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11125,7 +11128,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11151,10 +11154,10 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>163</v>
@@ -11198,7 +11201,7 @@
         <v>134</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
@@ -11207,7 +11210,7 @@
         <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11225,7 +11228,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11239,10 +11242,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11264,13 +11267,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11321,7 +11324,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11353,7 +11356,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11376,19 +11379,19 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11437,7 +11440,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11455,13 +11458,13 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11469,7 +11472,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11495,16 +11498,16 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11553,7 +11556,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11571,13 +11574,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11585,7 +11588,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11608,16 +11611,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11667,7 +11670,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11685,13 +11688,13 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11699,7 +11702,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11725,10 +11728,10 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11779,7 +11782,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11800,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11811,7 +11814,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11837,10 +11840,10 @@
         <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>163</v>
@@ -11884,7 +11887,7 @@
         <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
@@ -11893,7 +11896,7 @@
         <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11911,7 +11914,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11925,7 +11928,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11948,19 +11951,19 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12009,7 +12012,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12027,13 +12030,13 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -12041,7 +12044,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12067,20 +12070,20 @@
         <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
@@ -12104,10 +12107,10 @@
         <v>189</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12125,7 +12128,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12143,13 +12146,13 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12157,7 +12160,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12183,14 +12186,14 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12242,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12257,13 +12260,13 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12271,7 +12274,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12297,14 +12300,14 @@
         <v>100</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12353,7 +12356,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12362,7 +12365,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12371,13 +12374,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12385,7 +12388,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12411,16 +12414,16 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12449,7 +12452,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12467,7 +12470,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12485,13 +12488,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12499,7 +12502,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12522,16 +12525,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12579,7 +12582,7 @@
         <v>221</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12597,13 +12600,13 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12611,10 +12614,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>77</v>
@@ -12636,16 +12639,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12695,7 +12698,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12713,13 +12716,13 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>77</v>
@@ -12727,7 +12730,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12753,10 +12756,10 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12807,7 +12810,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12825,7 +12828,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12839,7 +12842,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12865,10 +12868,10 @@
         <v>131</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>163</v>
@@ -12912,7 +12915,7 @@
         <v>134</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
@@ -12921,7 +12924,7 @@
         <v>135</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12939,7 +12942,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12953,10 +12956,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>77</v>
@@ -12978,13 +12981,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13035,7 +13038,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13067,7 +13070,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13090,13 +13093,13 @@
         <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13147,7 +13150,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13165,7 +13168,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13179,7 +13182,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13202,13 +13205,13 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13259,7 +13262,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13277,7 +13280,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13291,10 +13294,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>77</v>
@@ -13316,16 +13319,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13375,7 +13378,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13387,19 +13390,19 @@
         <v>142</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>77</v>
@@ -13407,7 +13410,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13430,16 +13433,16 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13489,7 +13492,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13507,7 +13510,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
